--- a/PFOA inhalation Rat/Data/PFOA_male_tissues_ORAL_kim_2016.xlsx
+++ b/PFOA inhalation Rat/Data/PFOA_male_tissues_ORAL_kim_2016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACED3A2-BF75-4E97-BC4F-D89CC26C091F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61368685-2798-4BFF-9C60-5F90F8528D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="5040" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,6 +75,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,12 +115,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,7 +475,7 @@
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -484,15 +492,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>288</v>
       </c>
-      <c r="C2">
-        <v>0.57399999999999995</v>
+      <c r="C2" s="5">
+        <v>5.74</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -500,16 +508,18 @@
       <c r="E2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>288</v>
       </c>
-      <c r="C3">
-        <v>0.372</v>
+      <c r="C3" s="5">
+        <v>3.72</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -517,15 +527,17 @@
       <c r="E3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>288</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>0.95299999999999996</v>
       </c>
       <c r="D4">
@@ -534,15 +546,17 @@
       <c r="E4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>288</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>0.372</v>
       </c>
       <c r="D5">
@@ -551,15 +565,17 @@
       <c r="E5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1">
         <v>288</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>0.69799999999999995</v>
       </c>
       <c r="D6">
@@ -568,6 +584,11 @@
       <c r="E6" t="s">
         <v>1</v>
       </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
